--- a/Disease Assessment on Leaves.xlsx
+++ b/Disease Assessment on Leaves.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Gottwald_Lab\Leigh Sitler\Strawberries\Data\Trial 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luckymehra\Google Drive\USDA HRL\Projects\Wind tunnel\ALS_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Source Leaves - Trial 2" sheetId="3" r:id="rId3"/>
     <sheet name="Trap Leaves - Trial 2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="94">
   <si>
     <t>Plant#</t>
   </si>
@@ -63,12 +63,6 @@
   </si>
   <si>
     <t>102-3</t>
-  </si>
-  <si>
-    <t>Leaf Area (pixels)</t>
-  </si>
-  <si>
-    <t>Lesion Area (pixels)</t>
   </si>
   <si>
     <t>202-2</t>
@@ -287,9 +281,6 @@
     <t>% Infection per Plant</t>
   </si>
   <si>
-    <t>Wind Speed (mph)</t>
-  </si>
-  <si>
     <t>Rep</t>
   </si>
   <si>
@@ -302,13 +293,28 @@
     <t>Y</t>
   </si>
   <si>
-    <t>% Disease per Leaf</t>
+    <t>Plant_num</t>
+  </si>
+  <si>
+    <t>Leaf_num</t>
+  </si>
+  <si>
+    <t>Wind_speed_mph</t>
+  </si>
+  <si>
+    <t>Leaf_area_px</t>
+  </si>
+  <si>
+    <t>Lesion_area_px</t>
+  </si>
+  <si>
+    <t>severity_per_leaf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -368,7 +374,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -438,9 +444,10 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -461,7 +468,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2623,6 +2630,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C836-4BE8-B110-D8E92FBED45B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2805,7 +2817,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2976,6 +2988,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-694B-4314-908A-41A3B5789718}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3158,7 +3175,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3479,6 +3496,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B511-44BF-B08C-CEC2B7036C21}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3661,7 +3683,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3821,6 +3843,11 @@
               </c:pt>
             </c:numLit>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-28F8-447B-ADD6-C93631F9EB39}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6593,61 +6620,61 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S36" sqref="S36"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="12" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="12" customWidth="1"/>
     <col min="3" max="3" width="4.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="12" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="30" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" s="12">
         <v>5</v>
@@ -6673,7 +6700,7 @@
         <v>4.7032193762263662E-2</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J2" s="23">
         <f>AVERAGE(G2:G10)</f>
@@ -6686,7 +6713,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" s="12">
         <v>5</v>
@@ -6715,7 +6742,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" s="12">
         <v>5</v>
@@ -6744,7 +6771,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B5" s="12">
         <v>5</v>
@@ -6770,14 +6797,14 @@
         <v>4.6687356669823425E-2</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" s="12">
         <v>5</v>
@@ -6805,7 +6832,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B7" s="12">
         <v>5</v>
@@ -6833,7 +6860,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B8" s="12">
         <v>5</v>
@@ -6860,14 +6887,14 @@
         <v>2.2148912128047669E-2</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B9" s="12">
         <v>5</v>
@@ -6895,7 +6922,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B10" s="12">
         <v>5</v>
@@ -6923,7 +6950,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B11" s="12">
         <v>5</v>
@@ -6949,7 +6976,7 @@
         <v>1.6182021348241003E-2</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J11" s="23">
         <f>AVERAGE(G11:G19)</f>
@@ -6959,7 +6986,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" s="12">
         <v>5</v>
@@ -6987,7 +7014,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B13" s="12">
         <v>5</v>
@@ -7015,7 +7042,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B14" s="12">
         <v>5</v>
@@ -7042,14 +7069,14 @@
         <v>1.0933846322940709E-2</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B15" s="12">
         <v>5</v>
@@ -7078,7 +7105,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="12">
         <v>5</v>
@@ -7107,7 +7134,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B17" s="12">
         <v>5</v>
@@ -7133,14 +7160,14 @@
         <v>1.3262812752670207E-3</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B18" s="12">
         <v>5</v>
@@ -7168,7 +7195,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B19" s="12">
         <v>5</v>
@@ -7197,7 +7224,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B20" s="12">
         <v>5</v>
@@ -7223,7 +7250,7 @@
         <v>9.6064595950121449E-3</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J20" s="23">
         <f>AVERAGE(G20:G28)</f>
@@ -7233,7 +7260,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B21" s="12">
         <v>5</v>
@@ -7261,7 +7288,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B22" s="12">
         <v>5</v>
@@ -7289,7 +7316,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B23" s="12">
         <v>5</v>
@@ -7315,14 +7342,14 @@
         <v>3.8394791698756453E-2</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B24" s="12">
         <v>5</v>
@@ -7350,7 +7377,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B25" s="12">
         <v>5</v>
@@ -7379,7 +7406,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B26" s="12">
         <v>5</v>
@@ -7405,14 +7432,14 @@
         <v>4.7538102634663619E-2</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J26" s="23"/>
       <c r="K26" s="23"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B27" s="12">
         <v>5</v>
@@ -7440,7 +7467,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B28" s="12">
         <v>5</v>
@@ -7494,7 +7521,7 @@
         <v>2.5537971149939432E-3</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J29" s="23">
         <f>AVERAGE(G29:G37)</f>
@@ -7589,7 +7616,7 @@
         <v>2.5963206398427058E-3</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J32" s="23"/>
       <c r="K32" s="23"/>
@@ -7678,7 +7705,7 @@
         <v>1.3841368860795292E-3</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J35" s="23"/>
       <c r="K35" s="23"/>
@@ -7767,7 +7794,7 @@
         <v>1.680698029832298E-2</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J38" s="23">
         <f>AVERAGE(G38:G46)</f>
@@ -7859,7 +7886,7 @@
         <v>5.9965877385072509E-2</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J41" s="23"/>
       <c r="K41" s="23"/>
@@ -7951,7 +7978,7 @@
         <v>5.6204981849405894E-2</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J44" s="23"/>
       <c r="K44" s="23"/>
@@ -8041,7 +8068,7 @@
         <v>7.123242367983805E-2</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J47" s="23">
         <f>AVERAGE(G47:G55)</f>
@@ -8133,7 +8160,7 @@
         <v>1.8217811284199062E-3</v>
       </c>
       <c r="I50" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J50" s="23"/>
       <c r="K50" s="23"/>
@@ -8222,7 +8249,7 @@
         <v>4.6833821532229036E-2</v>
       </c>
       <c r="I53" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J53" s="23"/>
       <c r="K53" s="23"/>
@@ -8286,7 +8313,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B56" s="12">
         <v>25</v>
@@ -8313,7 +8340,7 @@
         <v>0.10009030199509712</v>
       </c>
       <c r="I56" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J56" s="23">
         <f>AVERAGE(G56:G64)</f>
@@ -8326,7 +8353,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B57" s="12">
         <v>25</v>
@@ -8355,7 +8382,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B58" s="12">
         <v>25</v>
@@ -8384,7 +8411,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B59" s="12">
         <v>25</v>
@@ -8410,14 +8437,14 @@
         <v>3.8788561358745623E-2</v>
       </c>
       <c r="I59" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J59" s="23"/>
       <c r="K59" s="23"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B60" s="12">
         <v>25</v>
@@ -8446,7 +8473,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B61" s="12">
         <v>25</v>
@@ -8474,7 +8501,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B62" s="12">
         <v>25</v>
@@ -8501,14 +8528,14 @@
         <v>3.1591500691166542E-2</v>
       </c>
       <c r="I62" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J62" s="23"/>
       <c r="K62" s="23"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B63" s="12">
         <v>25</v>
@@ -8537,7 +8564,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B64" s="12">
         <v>25</v>
@@ -8566,7 +8593,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B65" s="12">
         <v>25</v>
@@ -8592,7 +8619,7 @@
         <v>7.6324635098378359E-3</v>
       </c>
       <c r="I65" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J65" s="23">
         <f>AVERAGE(G65:G73)</f>
@@ -8602,7 +8629,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B66" s="12">
         <v>25</v>
@@ -8630,7 +8657,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B67" s="12">
         <v>25</v>
@@ -8658,7 +8685,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B68" s="12">
         <v>25</v>
@@ -8684,14 +8711,14 @@
         <v>1.6353100882870422E-3</v>
       </c>
       <c r="I68" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J68" s="23"/>
       <c r="K68" s="23"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B69" s="12">
         <v>25</v>
@@ -8719,7 +8746,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B70" s="12">
         <v>25</v>
@@ -8747,7 +8774,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B71" s="12">
         <v>25</v>
@@ -8773,14 +8800,14 @@
         <v>9.6906070220810698E-4</v>
       </c>
       <c r="I71" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J71" s="23"/>
       <c r="K71" s="23"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B72" s="12">
         <v>25</v>
@@ -8808,7 +8835,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B73" s="12">
         <v>25</v>
@@ -8836,7 +8863,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B74" s="12">
         <v>25</v>
@@ -8863,7 +8890,7 @@
         <v>5.0291719306526355E-3</v>
       </c>
       <c r="I74" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J74" s="23">
         <f>AVERAGE(G74:G82)</f>
@@ -8873,7 +8900,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B75" s="12">
         <v>25</v>
@@ -8902,7 +8929,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B76" s="12">
         <v>25</v>
@@ -8931,7 +8958,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B77" s="12">
         <v>25</v>
@@ -8958,14 +8985,14 @@
         <v>1.6180782273428205E-2</v>
       </c>
       <c r="I77" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J77" s="23"/>
       <c r="K77" s="23"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B78" s="12">
         <v>25</v>
@@ -8994,7 +9021,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B79" s="12">
         <v>25</v>
@@ -9022,7 +9049,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B80" s="12">
         <v>25</v>
@@ -9049,14 +9076,14 @@
         <v>6.6982404321054234E-2</v>
       </c>
       <c r="I80" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J80" s="23"/>
       <c r="K80" s="23"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B81" s="12">
         <v>25</v>
@@ -9085,7 +9112,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B82" s="12">
         <v>25</v>
@@ -9114,7 +9141,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B83" s="12">
         <v>35</v>
@@ -9140,7 +9167,7 @@
         <v>1.7279788134122505E-4</v>
       </c>
       <c r="I83" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J83" s="23">
         <f>AVERAGE(G84:G91)</f>
@@ -9153,7 +9180,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B84" s="12">
         <v>35</v>
@@ -9181,7 +9208,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B85" s="12">
         <v>35</v>
@@ -9209,7 +9236,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B86" s="12">
         <v>35</v>
@@ -9235,14 +9262,14 @@
         <v>5.7585106850145576E-2</v>
       </c>
       <c r="I86" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J86" s="23"/>
       <c r="K86" s="23"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B87" s="12">
         <v>35</v>
@@ -9271,7 +9298,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B88" s="12">
         <v>35</v>
@@ -9300,7 +9327,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B89" s="12">
         <v>35</v>
@@ -9326,14 +9353,14 @@
         <v>3.0857500533816116E-2</v>
       </c>
       <c r="I89" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J89" s="23"/>
       <c r="K89" s="23"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B90" s="12">
         <v>35</v>
@@ -9361,7 +9388,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B91" s="12">
         <v>35</v>
@@ -9389,7 +9416,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B92" s="12">
         <v>35</v>
@@ -9415,7 +9442,7 @@
         <v>1.6260976731978917E-3</v>
       </c>
       <c r="I92" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J92" s="23">
         <f>AVERAGE(G92:G100)</f>
@@ -9425,7 +9452,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B93" s="12">
         <v>35</v>
@@ -9453,7 +9480,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B94" s="12">
         <v>35</v>
@@ -9481,7 +9508,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B95" s="12">
         <v>35</v>
@@ -9507,14 +9534,14 @@
         <v>1.5820139572762522E-2</v>
       </c>
       <c r="I95" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J95" s="23"/>
       <c r="K95" s="23"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B96" s="12">
         <v>35</v>
@@ -9543,7 +9570,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B97" s="12">
         <v>35</v>
@@ -9571,7 +9598,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B98" s="12">
         <v>35</v>
@@ -9597,14 +9624,14 @@
         <v>4.0738926846616078E-2</v>
       </c>
       <c r="I98" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J98" s="23"/>
       <c r="K98" s="23"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B99" s="12">
         <v>35</v>
@@ -9633,7 +9660,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B100" s="12">
         <v>35</v>
@@ -9662,7 +9689,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B101" s="12">
         <v>35</v>
@@ -9689,7 +9716,7 @@
         <v>8.1678650172246237E-2</v>
       </c>
       <c r="I101" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J101" s="23">
         <f t="shared" ref="J101" si="34">AVERAGE(G101:G109)</f>
@@ -9699,7 +9726,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B102" s="12">
         <v>35</v>
@@ -9728,7 +9755,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B103" s="12">
         <v>35</v>
@@ -9757,7 +9784,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B104" s="12">
         <v>35</v>
@@ -9783,14 +9810,14 @@
         <v>6.9596073146406335E-3</v>
       </c>
       <c r="I104" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J104" s="23"/>
       <c r="K104" s="23"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B105" s="12">
         <v>35</v>
@@ -9818,7 +9845,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B106" s="12">
         <v>35</v>
@@ -9846,7 +9873,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B107" s="12">
         <v>35</v>
@@ -9872,14 +9899,14 @@
         <v>4.7678253420778052E-3</v>
       </c>
       <c r="I107" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J107" s="23"/>
       <c r="K107" s="23"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B108" s="12">
         <v>35</v>
@@ -9908,7 +9935,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B109" s="12">
         <v>35</v>
@@ -9937,7 +9964,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B110" s="12">
         <v>45</v>
@@ -9964,7 +9991,7 @@
         <v>3.9312913947361604E-2</v>
       </c>
       <c r="I110" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J110" s="23">
         <f t="shared" ref="J110" si="38">AVERAGE(G111:G118)</f>
@@ -9977,7 +10004,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B111" s="12">
         <v>45</v>
@@ -10005,7 +10032,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B112" s="12">
         <v>45</v>
@@ -10033,7 +10060,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B113" s="12">
         <v>45</v>
@@ -10060,14 +10087,14 @@
         <v>1.9796841189622078E-2</v>
       </c>
       <c r="I113" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J113" s="23"/>
       <c r="K113" s="23"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B114" s="12">
         <v>45</v>
@@ -10096,7 +10123,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B115" s="12">
         <v>45</v>
@@ -10124,7 +10151,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B116" s="12">
         <v>45</v>
@@ -10150,14 +10177,14 @@
         <v>5.053899570086004E-2</v>
       </c>
       <c r="I116" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J116" s="23"/>
       <c r="K116" s="23"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B117" s="12">
         <v>45</v>
@@ -10185,7 +10212,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B118" s="12">
         <v>45</v>
@@ -10213,7 +10240,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B119" s="12">
         <v>45</v>
@@ -10239,7 +10266,7 @@
         <v>2.590090060143806E-4</v>
       </c>
       <c r="I119" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J119" s="23">
         <f t="shared" ref="J119" si="42">AVERAGE(G119:G127)</f>
@@ -10249,7 +10276,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B120" s="12">
         <v>45</v>
@@ -10277,7 +10304,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B121" s="12">
         <v>45</v>
@@ -10305,7 +10332,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B122" s="12">
         <v>45</v>
@@ -10332,14 +10359,14 @@
         <v>5.0881720593422136E-2</v>
       </c>
       <c r="I122" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J122" s="23"/>
       <c r="K122" s="23"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B123" s="12">
         <v>45</v>
@@ -10367,7 +10394,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B124" s="12">
         <v>45</v>
@@ -10395,7 +10422,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B125" s="12">
         <v>45</v>
@@ -10421,14 +10448,14 @@
         <v>1.7861149389276295E-2</v>
       </c>
       <c r="I125" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J125" s="23"/>
       <c r="K125" s="23"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B126" s="12">
         <v>45</v>
@@ -10457,7 +10484,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B127" s="12">
         <v>45</v>
@@ -10486,7 +10513,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B128" s="12">
         <v>45</v>
@@ -10513,7 +10540,7 @@
         <v>5.8348024658830587E-3</v>
       </c>
       <c r="I128" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J128" s="23">
         <f t="shared" ref="J128" si="46">AVERAGE(G128:G136)</f>
@@ -10523,7 +10550,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B129" s="12">
         <v>45</v>
@@ -10551,7 +10578,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B130" s="12">
         <v>45</v>
@@ -10579,7 +10606,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B131" s="12">
         <v>45</v>
@@ -10605,14 +10632,14 @@
         <v>8.0795854152099951E-3</v>
       </c>
       <c r="I131" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J131" s="23"/>
       <c r="K131" s="23"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B132" s="12">
         <v>45</v>
@@ -10640,7 +10667,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B133" s="12">
         <v>45</v>
@@ -10668,7 +10695,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B134" s="12">
         <v>45</v>
@@ -10695,14 +10722,14 @@
         <v>9.2011848097427323E-2</v>
       </c>
       <c r="I134" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J134" s="23"/>
       <c r="K134" s="23"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B135" s="12">
         <v>45</v>
@@ -10730,7 +10757,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B136" s="12">
         <v>45</v>
@@ -10759,7 +10786,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B137" s="12">
         <v>5</v>
@@ -10786,7 +10813,7 @@
         <v>1.349630649778495E-2</v>
       </c>
       <c r="I137" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J137" s="23">
         <f t="shared" ref="J137" si="51">AVERAGE(G138:G145)</f>
@@ -10799,7 +10826,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B138" s="12">
         <v>5</v>
@@ -10827,7 +10854,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B139" s="12">
         <v>5</v>
@@ -10856,7 +10883,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B140" s="12">
         <v>5</v>
@@ -10882,14 +10909,14 @@
         <v>1.3866196600730621E-2</v>
       </c>
       <c r="I140" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J140" s="23"/>
       <c r="K140" s="23"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B141" s="12">
         <v>5</v>
@@ -10918,7 +10945,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B142" s="12">
         <v>5</v>
@@ -10946,7 +10973,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B143" s="12">
         <v>5</v>
@@ -10972,14 +10999,14 @@
         <v>0</v>
       </c>
       <c r="I143" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J143" s="23"/>
       <c r="K143" s="23"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B144" s="12">
         <v>5</v>
@@ -11007,7 +11034,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B145" s="12">
         <v>5</v>
@@ -11035,7 +11062,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B146" s="12">
         <v>5</v>
@@ -11062,7 +11089,7 @@
         <v>8.6130808826176158E-2</v>
       </c>
       <c r="I146" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J146" s="23">
         <f t="shared" ref="J146" si="55">AVERAGE(G146:G154)</f>
@@ -11072,7 +11099,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B147" s="12">
         <v>5</v>
@@ -11101,7 +11128,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B148" s="12">
         <v>5</v>
@@ -11129,7 +11156,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B149" s="12">
         <v>5</v>
@@ -11156,14 +11183,14 @@
         <v>1.8709567601635928E-2</v>
       </c>
       <c r="I149" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J149" s="23"/>
       <c r="K149" s="23"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B150" s="12">
         <v>5</v>
@@ -11191,7 +11218,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B151" s="12">
         <v>5</v>
@@ -11219,7 +11246,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B152" s="12">
         <v>5</v>
@@ -11245,14 +11272,14 @@
         <v>6.4786998333060501E-4</v>
       </c>
       <c r="I152" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J152" s="23"/>
       <c r="K152" s="23"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B153" s="12">
         <v>5</v>
@@ -11280,7 +11307,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B154" s="12">
         <v>5</v>
@@ -11308,7 +11335,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B155" s="12">
         <v>5</v>
@@ -11335,7 +11362,7 @@
         <v>1.4153808851516561E-3</v>
       </c>
       <c r="I155" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J155" s="23">
         <f t="shared" ref="J155" si="59">AVERAGE(G155:G163)</f>
@@ -11345,7 +11372,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B156" s="12">
         <v>5</v>
@@ -11373,7 +11400,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B157" s="12">
         <v>5</v>
@@ -11401,7 +11428,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B158" s="12">
         <v>5</v>
@@ -11427,14 +11454,14 @@
         <v>5.897575706235586E-3</v>
       </c>
       <c r="I158" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J158" s="23"/>
       <c r="K158" s="23"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B159" s="12">
         <v>5</v>
@@ -11462,7 +11489,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B160" s="12">
         <v>5</v>
@@ -11490,7 +11517,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B161" s="12">
         <v>5</v>
@@ -11516,14 +11543,14 @@
         <v>6.4541742377910343E-3</v>
       </c>
       <c r="I161" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J161" s="23"/>
       <c r="K161" s="23"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B162" s="12">
         <v>5</v>
@@ -11552,7 +11579,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B163" s="12">
         <v>5</v>
@@ -11580,7 +11607,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B164" s="12">
         <v>10</v>
@@ -11606,7 +11633,7 @@
         <v>7.9366846525012365E-3</v>
       </c>
       <c r="I164" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J164" s="23">
         <f t="shared" ref="J164" si="63">AVERAGE(G165:G172)</f>
@@ -11619,7 +11646,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B165" s="12">
         <v>10</v>
@@ -11647,7 +11674,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B166" s="12">
         <v>10</v>
@@ -11675,7 +11702,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B167" s="12">
         <v>10</v>
@@ -11701,14 +11728,14 @@
         <v>1.4456596392722976E-2</v>
       </c>
       <c r="I167" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J167" s="23"/>
       <c r="K167" s="23"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B168" s="12">
         <v>10</v>
@@ -11736,7 +11763,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B169" s="12">
         <v>10</v>
@@ -11764,7 +11791,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B170" s="12">
         <v>10</v>
@@ -11790,14 +11817,14 @@
         <v>2.131572088218485E-3</v>
       </c>
       <c r="I170" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J170" s="23"/>
       <c r="K170" s="23"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B171" s="12">
         <v>10</v>
@@ -11825,7 +11852,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B172" s="12">
         <v>10</v>
@@ -11853,7 +11880,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B173" s="12">
         <v>10</v>
@@ -11879,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="I173" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J173" s="23">
         <f t="shared" ref="J173" si="67">AVERAGE(G173:G181)</f>
@@ -11889,7 +11916,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B174" s="12">
         <v>10</v>
@@ -11917,7 +11944,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B175" s="12">
         <v>10</v>
@@ -11945,7 +11972,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B176" s="12">
         <v>10</v>
@@ -11971,14 +11998,14 @@
         <v>1.2273077169267343E-2</v>
       </c>
       <c r="I176" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J176" s="23"/>
       <c r="K176" s="23"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B177" s="12">
         <v>10</v>
@@ -12006,7 +12033,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B178" s="12">
         <v>10</v>
@@ -12034,7 +12061,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B179" s="12">
         <v>10</v>
@@ -12060,14 +12087,14 @@
         <v>1.1865305779673787E-2</v>
       </c>
       <c r="I179" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J179" s="23"/>
       <c r="K179" s="23"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B180" s="12">
         <v>10</v>
@@ -12095,7 +12122,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B181" s="12">
         <v>10</v>
@@ -12123,7 +12150,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B182" s="12">
         <v>10</v>
@@ -12149,7 +12176,7 @@
         <v>7.0131818289197038E-4</v>
       </c>
       <c r="I182" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J182" s="23">
         <f t="shared" ref="J182" si="71">AVERAGE(G182:G190)</f>
@@ -12159,7 +12186,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B183" s="12">
         <v>10</v>
@@ -12187,7 +12214,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B184" s="12">
         <v>10</v>
@@ -12215,7 +12242,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B185" s="12">
         <v>10</v>
@@ -12241,14 +12268,14 @@
         <v>1.6044088394324845E-2</v>
       </c>
       <c r="I185" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J185" s="23"/>
       <c r="K185" s="23"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B186" s="12">
         <v>10</v>
@@ -12276,7 +12303,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B187" s="12">
         <v>10</v>
@@ -12304,7 +12331,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B188" s="12">
         <v>10</v>
@@ -12330,14 +12357,14 @@
         <v>8.1044692075715755E-2</v>
       </c>
       <c r="I188" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J188" s="23"/>
       <c r="K188" s="23"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B189" s="12">
         <v>10</v>
@@ -12365,7 +12392,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B190" s="12">
         <v>10</v>
@@ -12394,7 +12421,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B191" s="12">
         <v>25</v>
@@ -12420,7 +12447,7 @@
         <v>1.3110420352335696E-2</v>
       </c>
       <c r="I191" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J191" s="23">
         <f t="shared" ref="J191" si="75">AVERAGE(G192:G199)</f>
@@ -12433,7 +12460,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B192" s="12">
         <v>25</v>
@@ -12462,7 +12489,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B193" s="12">
         <v>25</v>
@@ -12490,7 +12517,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B194" s="12">
         <v>25</v>
@@ -12517,14 +12544,14 @@
         <v>6.0106078901555268E-2</v>
       </c>
       <c r="I194" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J194" s="23"/>
       <c r="K194" s="23"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B195" s="12">
         <v>25</v>
@@ -12552,7 +12579,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B196" s="12">
         <v>25</v>
@@ -12581,7 +12608,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B197" s="12">
         <v>25</v>
@@ -12607,14 +12634,14 @@
         <v>1.0396301883434912E-2</v>
       </c>
       <c r="I197" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J197" s="23"/>
       <c r="K197" s="23"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B198" s="12">
         <v>25</v>
@@ -12642,7 +12669,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B199" s="12">
         <v>25</v>
@@ -12670,7 +12697,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B200" s="12">
         <v>25</v>
@@ -12696,7 +12723,7 @@
         <v>2.3979135595620765E-4</v>
       </c>
       <c r="I200" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J200" s="23">
         <f t="shared" ref="J200" si="80">AVERAGE(G200:G208)</f>
@@ -12706,7 +12733,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B201" s="12">
         <v>25</v>
@@ -12734,7 +12761,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B202" s="12">
         <v>25</v>
@@ -12762,7 +12789,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B203" s="12">
         <v>25</v>
@@ -12789,14 +12816,14 @@
         <v>3.0677844682928036E-2</v>
       </c>
       <c r="I203" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J203" s="23"/>
       <c r="K203" s="23"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B204" s="12">
         <v>25</v>
@@ -12825,7 +12852,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B205" s="12">
         <v>25</v>
@@ -12853,7 +12880,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B206" s="12">
         <v>25</v>
@@ -12879,14 +12906,14 @@
         <v>1.0386945481632234E-2</v>
       </c>
       <c r="I206" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J206" s="23"/>
       <c r="K206" s="23"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B207" s="12">
         <v>25</v>
@@ -12915,7 +12942,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B208" s="12">
         <v>25</v>
@@ -12943,7 +12970,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B209" s="12">
         <v>25</v>
@@ -12969,7 +12996,7 @@
         <v>3.0640029799781927E-2</v>
       </c>
       <c r="I209" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J209" s="23">
         <f t="shared" ref="J209" si="84">AVERAGE(G209:G217)</f>
@@ -12979,7 +13006,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B210" s="12">
         <v>25</v>
@@ -13007,7 +13034,7 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B211" s="12">
         <v>25</v>
@@ -13035,7 +13062,7 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B212" s="12">
         <v>25</v>
@@ -13061,14 +13088,14 @@
         <v>4.5361962950418173E-2</v>
       </c>
       <c r="I212" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J212" s="23"/>
       <c r="K212" s="23"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B213" s="12">
         <v>25</v>
@@ -13097,7 +13124,7 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B214" s="12">
         <v>25</v>
@@ -13126,7 +13153,7 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B215" s="12">
         <v>25</v>
@@ -13153,14 +13180,14 @@
         <v>1.0585040311079057E-2</v>
       </c>
       <c r="I215" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J215" s="23"/>
       <c r="K215" s="23"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B216" s="12">
         <v>25</v>
@@ -13189,7 +13216,7 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B217" s="12">
         <v>25</v>
@@ -13217,7 +13244,7 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B218" s="12">
         <v>35</v>
@@ -13243,7 +13270,7 @@
         <v>0</v>
       </c>
       <c r="I218" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J218" s="23">
         <f t="shared" ref="J218" si="88">AVERAGE(G219:G226)</f>
@@ -13256,7 +13283,7 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B219" s="12">
         <v>35</v>
@@ -13284,7 +13311,7 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B220" s="12">
         <v>35</v>
@@ -13312,7 +13339,7 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B221" s="12">
         <v>35</v>
@@ -13338,14 +13365,14 @@
         <v>4.8036414912640123E-2</v>
       </c>
       <c r="I221" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J221" s="23"/>
       <c r="K221" s="23"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B222" s="12">
         <v>35</v>
@@ -13373,7 +13400,7 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B223" s="12">
         <v>35</v>
@@ -13402,7 +13429,7 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B224" s="12">
         <v>35</v>
@@ -13428,14 +13455,14 @@
         <v>1.4471316665337429E-2</v>
       </c>
       <c r="I224" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J224" s="23"/>
       <c r="K224" s="23"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B225" s="12">
         <v>35</v>
@@ -13463,7 +13490,7 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B226" s="12">
         <v>35</v>
@@ -13491,7 +13518,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B227" s="12">
         <v>35</v>
@@ -13517,7 +13544,7 @@
         <v>5.3910016357116231E-2</v>
       </c>
       <c r="I227" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J227" s="23">
         <f t="shared" ref="J227" si="92">AVERAGE(G227:G235)</f>
@@ -13527,7 +13554,7 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B228" s="12">
         <v>35</v>
@@ -13555,7 +13582,7 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B229" s="12">
         <v>35</v>
@@ -13583,7 +13610,7 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B230" s="12">
         <v>35</v>
@@ -13609,14 +13636,14 @@
         <v>1.1619042016513289E-3</v>
       </c>
       <c r="I230" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J230" s="23"/>
       <c r="K230" s="23"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B231" s="12">
         <v>35</v>
@@ -13644,7 +13671,7 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B232" s="12">
         <v>35</v>
@@ -13672,7 +13699,7 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B233" s="12">
         <v>35</v>
@@ -13698,14 +13725,14 @@
         <v>1.0054039499278015E-2</v>
       </c>
       <c r="I233" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J233" s="23"/>
       <c r="K233" s="23"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B234" s="12">
         <v>35</v>
@@ -13733,7 +13760,7 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B235" s="12">
         <v>35</v>
@@ -13761,7 +13788,7 @@
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B236" s="12">
         <v>35</v>
@@ -13787,7 +13814,7 @@
         <v>6.2373748032730544E-3</v>
       </c>
       <c r="I236" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J236" s="23">
         <f t="shared" ref="J236" si="96">AVERAGE(G236:G244)</f>
@@ -13797,7 +13824,7 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B237" s="12">
         <v>35</v>
@@ -13825,7 +13852,7 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B238" s="12">
         <v>35</v>
@@ -13853,7 +13880,7 @@
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B239" s="12">
         <v>35</v>
@@ -13879,14 +13906,14 @@
         <v>2.0900798735454321E-2</v>
       </c>
       <c r="I239" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J239" s="23"/>
       <c r="K239" s="23"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B240" s="12">
         <v>35</v>
@@ -13914,7 +13941,7 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B241" s="12">
         <v>35</v>
@@ -13942,7 +13969,7 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B242" s="12">
         <v>35</v>
@@ -13968,14 +13995,14 @@
         <v>8.7313538355078095E-3</v>
       </c>
       <c r="I242" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J242" s="23"/>
       <c r="K242" s="23"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B243" s="12">
         <v>35</v>
@@ -14003,7 +14030,7 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B244" s="12">
         <v>35</v>
@@ -14031,7 +14058,7 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B245" s="12">
         <v>45</v>
@@ -14057,7 +14084,7 @@
         <v>8.3243793440256775E-3</v>
       </c>
       <c r="I245" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J245" s="23">
         <f t="shared" ref="J245" si="100">AVERAGE(G246:G253)</f>
@@ -14070,7 +14097,7 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B246" s="12">
         <v>45</v>
@@ -14098,7 +14125,7 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B247" s="12">
         <v>45</v>
@@ -14126,7 +14153,7 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B248" s="12">
         <v>45</v>
@@ -14152,14 +14179,14 @@
         <v>2.7924600452889091E-4</v>
       </c>
       <c r="I248" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J248" s="23"/>
       <c r="K248" s="23"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B249" s="12">
         <v>45</v>
@@ -14187,7 +14214,7 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B250" s="12">
         <v>45</v>
@@ -14215,7 +14242,7 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B251" s="12">
         <v>45</v>
@@ -14241,14 +14268,14 @@
         <v>1.7083122916514447E-2</v>
       </c>
       <c r="I251" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J251" s="23"/>
       <c r="K251" s="23"/>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B252" s="12">
         <v>45</v>
@@ -14277,7 +14304,7 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B253" s="12">
         <v>45</v>
@@ -14306,7 +14333,7 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B254" s="12">
         <v>45</v>
@@ -14332,7 +14359,7 @@
         <v>0</v>
       </c>
       <c r="I254" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J254" s="23">
         <f t="shared" ref="J254" si="104">AVERAGE(G254:G262)</f>
@@ -14342,7 +14369,7 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B255" s="12">
         <v>45</v>
@@ -14370,7 +14397,7 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B256" s="12">
         <v>45</v>
@@ -14398,7 +14425,7 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B257" s="12">
         <v>45</v>
@@ -14424,14 +14451,14 @@
         <v>3.1369789648648927E-3</v>
       </c>
       <c r="I257" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J257" s="23"/>
       <c r="K257" s="23"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B258" s="12">
         <v>45</v>
@@ -14459,7 +14486,7 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B259" s="12">
         <v>45</v>
@@ -14487,7 +14514,7 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B260" s="12">
         <v>45</v>
@@ -14513,14 +14540,14 @@
         <v>1.9917819895304799E-2</v>
       </c>
       <c r="I260" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J260" s="23"/>
       <c r="K260" s="23"/>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B261" s="12">
         <v>45</v>
@@ -14548,7 +14575,7 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B262" s="12">
         <v>45</v>
@@ -14576,7 +14603,7 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B263" s="12">
         <v>45</v>
@@ -14602,7 +14629,7 @@
         <v>3.9610702790630781E-2</v>
       </c>
       <c r="I263" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J263" s="23">
         <f t="shared" ref="J263" si="109">AVERAGE(G263:G271)</f>
@@ -14612,7 +14639,7 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B264" s="12">
         <v>45</v>
@@ -14640,7 +14667,7 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B265" s="12">
         <v>45</v>
@@ -14668,7 +14695,7 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B266" s="12">
         <v>45</v>
@@ -14695,14 +14722,14 @@
         <v>4.3882780400417112E-2</v>
       </c>
       <c r="I266" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J266" s="23"/>
       <c r="K266" s="23"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B267" s="12">
         <v>45</v>
@@ -14731,7 +14758,7 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B268" s="12">
         <v>45</v>
@@ -14760,7 +14787,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B269" s="12">
         <v>45</v>
@@ -14787,14 +14814,14 @@
         <v>2.860169622510161E-2</v>
       </c>
       <c r="I269" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J269" s="23"/>
       <c r="K269" s="23"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B270" s="12">
         <v>45</v>
@@ -14822,7 +14849,7 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B271" s="12">
         <v>45</v>
@@ -14850,7 +14877,7 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B272" s="12">
         <v>5</v>
@@ -14877,7 +14904,7 @@
         <v>0.11352558434786551</v>
       </c>
       <c r="I272" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J272" s="23">
         <f t="shared" ref="J272" si="113">AVERAGE(G273:G280)</f>
@@ -14890,7 +14917,7 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B273" s="12">
         <v>5</v>
@@ -14918,7 +14945,7 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B274" s="12">
         <v>5</v>
@@ -14946,7 +14973,7 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B275" s="12">
         <v>5</v>
@@ -14972,14 +14999,14 @@
         <v>5.110654986403511E-3</v>
       </c>
       <c r="I275" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J275" s="23"/>
       <c r="K275" s="23"/>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B276" s="12">
         <v>5</v>
@@ -15007,7 +15034,7 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B277" s="12">
         <v>5</v>
@@ -15035,7 +15062,7 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B278" s="12">
         <v>5</v>
@@ -15061,14 +15088,14 @@
         <v>3.0993520726997487E-3</v>
       </c>
       <c r="I278" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J278" s="23"/>
       <c r="K278" s="23"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B279" s="12">
         <v>5</v>
@@ -15096,7 +15123,7 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B280" s="12">
         <v>5</v>
@@ -15124,7 +15151,7 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B281" s="12">
         <v>5</v>
@@ -15150,7 +15177,7 @@
         <v>3.6080992024346585E-3</v>
       </c>
       <c r="I281" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J281" s="23">
         <f t="shared" ref="J281" si="117">AVERAGE(G281:G289)</f>
@@ -15160,7 +15187,7 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B282" s="12">
         <v>5</v>
@@ -15188,7 +15215,7 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B283" s="12">
         <v>5</v>
@@ -15216,7 +15243,7 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B284" s="12">
         <v>5</v>
@@ -15242,14 +15269,14 @@
         <v>2.2682275544862089E-3</v>
       </c>
       <c r="I284" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J284" s="23"/>
       <c r="K284" s="23"/>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B285" s="12">
         <v>5</v>
@@ -15277,7 +15304,7 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B286" s="12">
         <v>5</v>
@@ -15305,7 +15332,7 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B287" s="12">
         <v>5</v>
@@ -15331,14 +15358,14 @@
         <v>3.1849493823421378E-3</v>
       </c>
       <c r="I287" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J287" s="23"/>
       <c r="K287" s="23"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B288" s="12">
         <v>5</v>
@@ -15366,7 +15393,7 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B289" s="12">
         <v>5</v>
@@ -15394,7 +15421,7 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B290" s="12">
         <v>5</v>
@@ -15420,7 +15447,7 @@
         <v>5.0387279944795214E-2</v>
       </c>
       <c r="I290" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J290" s="23">
         <f t="shared" ref="J290" si="121">AVERAGE(G290:G298)</f>
@@ -15430,7 +15457,7 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B291" s="12">
         <v>5</v>
@@ -15459,7 +15486,7 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B292" s="12">
         <v>5</v>
@@ -15488,7 +15515,7 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B293" s="12">
         <v>5</v>
@@ -15514,14 +15541,14 @@
         <v>3.5103359522831126E-2</v>
       </c>
       <c r="I293" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J293" s="23"/>
       <c r="K293" s="23"/>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B294" s="12">
         <v>5</v>
@@ -15550,7 +15577,7 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B295" s="12">
         <v>5</v>
@@ -15579,7 +15606,7 @@
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B296" s="12">
         <v>5</v>
@@ -15605,14 +15632,14 @@
         <v>4.6628486554709601E-2</v>
       </c>
       <c r="I296" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J296" s="23"/>
       <c r="K296" s="23"/>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B297" s="12">
         <v>5</v>
@@ -15641,7 +15668,7 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B298" s="12">
         <v>5</v>
@@ -15670,7 +15697,7 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B299" s="12">
         <v>10</v>
@@ -15696,7 +15723,7 @@
         <v>2.8825539409037112E-3</v>
       </c>
       <c r="I299" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J299" s="23">
         <f t="shared" ref="J299" si="125">AVERAGE(G300:G307)</f>
@@ -15709,7 +15736,7 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B300" s="12">
         <v>10</v>
@@ -15737,7 +15764,7 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B301" s="12">
         <v>10</v>
@@ -15765,7 +15792,7 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B302" s="12">
         <v>10</v>
@@ -15791,14 +15818,14 @@
         <v>1.217354614495483E-2</v>
       </c>
       <c r="I302" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J302" s="23"/>
       <c r="K302" s="23"/>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B303" s="12">
         <v>10</v>
@@ -15826,7 +15853,7 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B304" s="12">
         <v>10</v>
@@ -15854,7 +15881,7 @@
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B305" s="12">
         <v>10</v>
@@ -15880,14 +15907,14 @@
         <v>4.2515951664038884E-3</v>
       </c>
       <c r="I305" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J305" s="23"/>
       <c r="K305" s="23"/>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B306" s="12">
         <v>10</v>
@@ -15915,7 +15942,7 @@
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B307" s="12">
         <v>10</v>
@@ -15943,7 +15970,7 @@
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B308" s="12">
         <v>10</v>
@@ -15969,7 +15996,7 @@
         <v>2.369112222415325E-2</v>
       </c>
       <c r="I308" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J308" s="23">
         <f t="shared" ref="J308" si="129">AVERAGE(G308:G316)</f>
@@ -15979,7 +16006,7 @@
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B309" s="12">
         <v>10</v>
@@ -16007,7 +16034,7 @@
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B310" s="12">
         <v>10</v>
@@ -16036,7 +16063,7 @@
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B311" s="12">
         <v>10</v>
@@ -16062,14 +16089,14 @@
         <v>3.5861938650315985E-2</v>
       </c>
       <c r="I311" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J311" s="23"/>
       <c r="K311" s="23"/>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B312" s="12">
         <v>10</v>
@@ -16097,7 +16124,7 @@
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B313" s="12">
         <v>10</v>
@@ -16125,7 +16152,7 @@
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B314" s="12">
         <v>10</v>
@@ -16151,14 +16178,14 @@
         <v>5.9296702974804159E-3</v>
       </c>
       <c r="I314" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J314" s="23"/>
       <c r="K314" s="23"/>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B315" s="12">
         <v>10</v>
@@ -16187,7 +16214,7 @@
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B316" s="12">
         <v>10</v>
@@ -16215,7 +16242,7 @@
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B317" s="12">
         <v>10</v>
@@ -16241,7 +16268,7 @@
         <v>1.9416544324577263E-4</v>
       </c>
       <c r="I317" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J317" s="23">
         <f t="shared" ref="J317" si="133">AVERAGE(G317:G325)</f>
@@ -16251,7 +16278,7 @@
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B318" s="12">
         <v>10</v>
@@ -16279,7 +16306,7 @@
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B319" s="12">
         <v>10</v>
@@ -16307,7 +16334,7 @@
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B320" s="12">
         <v>10</v>
@@ -16333,14 +16360,14 @@
         <v>8.2199542882534643E-3</v>
       </c>
       <c r="I320" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J320" s="23"/>
       <c r="K320" s="23"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B321" s="12">
         <v>10</v>
@@ -16368,7 +16395,7 @@
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B322" s="12">
         <v>10</v>
@@ -16396,7 +16423,7 @@
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B323" s="12">
         <v>10</v>
@@ -16423,14 +16450,14 @@
         <v>0.12077439464958842</v>
       </c>
       <c r="I323" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J323" s="23"/>
       <c r="K323" s="23"/>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B324" s="12">
         <v>10</v>
@@ -16458,7 +16485,7 @@
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B325" s="12">
         <v>10</v>
@@ -16487,7 +16514,7 @@
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B326" s="12">
         <v>25</v>
@@ -16513,7 +16540,7 @@
         <v>3.6687315850272219E-2</v>
       </c>
       <c r="I326" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J326" s="23">
         <f t="shared" ref="J326" si="138">AVERAGE(G326:G334)</f>
@@ -16526,7 +16553,7 @@
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B327" s="12">
         <v>25</v>
@@ -16555,7 +16582,7 @@
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B328" s="12">
         <v>25</v>
@@ -16584,7 +16611,7 @@
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B329" s="12">
         <v>25</v>
@@ -16611,14 +16638,14 @@
         <v>6.0488433353238495E-2</v>
       </c>
       <c r="I329" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J329" s="23"/>
       <c r="K329" s="23"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B330" s="12">
         <v>25</v>
@@ -16646,7 +16673,7 @@
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B331" s="12">
         <v>25</v>
@@ -16674,7 +16701,7 @@
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B332" s="12">
         <v>25</v>
@@ -16700,14 +16727,14 @@
         <v>7.280635272711989E-3</v>
       </c>
       <c r="I332" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J332" s="23"/>
       <c r="K332" s="23"/>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B333" s="12">
         <v>25</v>
@@ -16736,7 +16763,7 @@
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B334" s="12">
         <v>25</v>
@@ -16764,7 +16791,7 @@
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B335" s="12">
         <v>25</v>
@@ -16791,7 +16818,7 @@
         <v>1.1441038415210018E-2</v>
       </c>
       <c r="I335" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J335" s="23">
         <f t="shared" ref="J335" si="142">AVERAGE(G335:G343)</f>
@@ -16801,7 +16828,7 @@
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B336" s="12">
         <v>25</v>
@@ -16830,7 +16857,7 @@
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B337" s="12">
         <v>25</v>
@@ -16859,7 +16886,7 @@
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B338" s="12">
         <v>25</v>
@@ -16885,14 +16912,14 @@
         <v>7.7203039012448786E-3</v>
       </c>
       <c r="I338" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J338" s="23"/>
       <c r="K338" s="23"/>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B339" s="12">
         <v>25</v>
@@ -16921,7 +16948,7 @@
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B340" s="12">
         <v>25</v>
@@ -16949,7 +16976,7 @@
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B341" s="12">
         <v>25</v>
@@ -16975,14 +17002,14 @@
         <v>7.4229879985034108E-3</v>
       </c>
       <c r="I341" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J341" s="23"/>
       <c r="K341" s="23"/>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B342" s="12">
         <v>25</v>
@@ -17010,7 +17037,7 @@
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B343" s="12">
         <v>25</v>
@@ -17038,7 +17065,7 @@
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B344" s="12">
         <v>25</v>
@@ -17065,7 +17092,7 @@
         <v>0.10147466226372336</v>
       </c>
       <c r="I344" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J344" s="23">
         <f t="shared" ref="J344" si="146">AVERAGE(G344:G352)</f>
@@ -17075,7 +17102,7 @@
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B345" s="12">
         <v>25</v>
@@ -17104,7 +17131,7 @@
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B346" s="12">
         <v>25</v>
@@ -17133,7 +17160,7 @@
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B347" s="12">
         <v>25</v>
@@ -17160,14 +17187,14 @@
         <v>0.14354894842490529</v>
       </c>
       <c r="I347" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J347" s="23"/>
       <c r="K347" s="23"/>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B348" s="12">
         <v>25</v>
@@ -17196,7 +17223,7 @@
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B349" s="12">
         <v>25</v>
@@ -17225,7 +17252,7 @@
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B350" s="12">
         <v>25</v>
@@ -17252,14 +17279,14 @@
         <v>2.6614209820050197E-3</v>
       </c>
       <c r="I350" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J350" s="23"/>
       <c r="K350" s="23"/>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B351" s="12">
         <v>25</v>
@@ -17288,7 +17315,7 @@
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B352" s="12">
         <v>25</v>
@@ -17316,7 +17343,7 @@
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B353" s="12">
         <v>35</v>
@@ -17342,7 +17369,7 @@
         <v>4.5923299541457364E-3</v>
       </c>
       <c r="I353" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J353" s="23">
         <f t="shared" ref="J353" si="150">AVERAGE(G353:G361)</f>
@@ -17355,7 +17382,7 @@
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B354" s="12">
         <v>35</v>
@@ -17384,7 +17411,7 @@
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B355" s="12">
         <v>35</v>
@@ -17412,7 +17439,7 @@
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B356" s="12">
         <v>35</v>
@@ -17439,14 +17466,14 @@
         <v>1.0327159593220819E-2</v>
       </c>
       <c r="I356" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J356" s="23"/>
       <c r="K356" s="23"/>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B357" s="12">
         <v>35</v>
@@ -17474,7 +17501,7 @@
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B358" s="12">
         <v>35</v>
@@ -17503,7 +17530,7 @@
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B359" s="12">
         <v>35</v>
@@ -17529,14 +17556,14 @@
         <v>0</v>
       </c>
       <c r="I359" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J359" s="23"/>
       <c r="K359" s="23"/>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B360" s="12">
         <v>35</v>
@@ -17564,7 +17591,7 @@
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B361" s="12">
         <v>35</v>
@@ -17592,7 +17619,7 @@
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B362" s="12">
         <v>35</v>
@@ -17618,7 +17645,7 @@
         <v>7.3378491463115079E-4</v>
       </c>
       <c r="I362" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J362" s="23">
         <f t="shared" ref="J362" si="154">AVERAGE(G362:G370)</f>
@@ -17628,7 +17655,7 @@
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B363" s="12">
         <v>35</v>
@@ -17656,7 +17683,7 @@
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B364" s="12">
         <v>35</v>
@@ -17684,7 +17711,7 @@
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B365" s="12">
         <v>35</v>
@@ -17711,14 +17738,14 @@
         <v>4.4736675680181831E-2</v>
       </c>
       <c r="I365" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J365" s="23"/>
       <c r="K365" s="23"/>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B366" s="12">
         <v>35</v>
@@ -17746,7 +17773,7 @@
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B367" s="12">
         <v>35</v>
@@ -17775,7 +17802,7 @@
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B368" s="12">
         <v>35</v>
@@ -17802,14 +17829,14 @@
         <v>6.2346292745998483E-2</v>
       </c>
       <c r="I368" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J368" s="23"/>
       <c r="K368" s="23"/>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B369" s="12">
         <v>35</v>
@@ -17838,7 +17865,7 @@
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B370" s="12">
         <v>35</v>
@@ -17867,7 +17894,7 @@
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B371" s="12">
         <v>35</v>
@@ -17893,7 +17920,7 @@
         <v>1.3389237270767332E-2</v>
       </c>
       <c r="I371" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J371" s="23">
         <f t="shared" ref="J371" si="158">AVERAGE(G371:G379)</f>
@@ -17903,7 +17930,7 @@
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B372" s="12">
         <v>35</v>
@@ -17931,7 +17958,7 @@
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B373" s="12">
         <v>35</v>
@@ -17959,7 +17986,7 @@
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B374" s="12">
         <v>35</v>
@@ -17985,14 +18012,14 @@
         <v>1.3748142477555073E-2</v>
       </c>
       <c r="I374" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J374" s="23"/>
       <c r="K374" s="23"/>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B375" s="12">
         <v>35</v>
@@ -18020,7 +18047,7 @@
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B376" s="12">
         <v>35</v>
@@ -18048,7 +18075,7 @@
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B377" s="12">
         <v>35</v>
@@ -18074,14 +18101,14 @@
         <v>9.5826334304938247E-3</v>
       </c>
       <c r="I377" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J377" s="23"/>
       <c r="K377" s="23"/>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B378" s="12">
         <v>35</v>
@@ -18109,7 +18136,7 @@
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B379" s="12">
         <v>35</v>
@@ -18137,7 +18164,7 @@
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B380" s="12">
         <v>45</v>
@@ -18163,7 +18190,7 @@
         <v>0</v>
       </c>
       <c r="I380" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J380" s="23">
         <f t="shared" ref="J380" si="162">AVERAGE(G380:G388)</f>
@@ -18176,7 +18203,7 @@
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B381" s="12">
         <v>45</v>
@@ -18204,7 +18231,7 @@
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B382" s="12">
         <v>45</v>
@@ -18232,7 +18259,7 @@
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B383" s="12">
         <v>45</v>
@@ -18259,14 +18286,14 @@
         <v>9.1431116702401616E-2</v>
       </c>
       <c r="I383" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J383" s="23"/>
       <c r="K383" s="23"/>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B384" s="12">
         <v>45</v>
@@ -18294,7 +18321,7 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B385" s="12">
         <v>45</v>
@@ -18322,7 +18349,7 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B386" s="12">
         <v>45</v>
@@ -18348,14 +18375,14 @@
         <v>3.6099813817534283E-3</v>
       </c>
       <c r="I386" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J386" s="23"/>
       <c r="K386" s="23"/>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B387" s="12">
         <v>45</v>
@@ -18384,7 +18411,7 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B388" s="12">
         <v>45</v>
@@ -18413,7 +18440,7 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B389" s="12">
         <v>45</v>
@@ -18440,7 +18467,7 @@
         <v>5.4064206804363114E-2</v>
       </c>
       <c r="I389" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J389" s="23">
         <f t="shared" ref="J389" si="167">AVERAGE(G389:G397)</f>
@@ -18450,7 +18477,7 @@
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B390" s="12">
         <v>45</v>
@@ -18479,7 +18506,7 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B391" s="12">
         <v>45</v>
@@ -18508,7 +18535,7 @@
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B392" s="12">
         <v>45</v>
@@ -18535,14 +18562,14 @@
         <v>2.4927440639189172E-2</v>
       </c>
       <c r="I392" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J392" s="23"/>
       <c r="K392" s="23"/>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B393" s="12">
         <v>45</v>
@@ -18571,7 +18598,7 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B394" s="12">
         <v>45</v>
@@ -18600,7 +18627,7 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B395" s="12">
         <v>45</v>
@@ -18626,14 +18653,14 @@
         <v>4.9436570433300095E-3</v>
       </c>
       <c r="I395" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J395" s="23"/>
       <c r="K395" s="23"/>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B396" s="12">
         <v>45</v>
@@ -18661,7 +18688,7 @@
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B397" s="12">
         <v>45</v>
@@ -18689,7 +18716,7 @@
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B398" s="12">
         <v>45</v>
@@ -18716,7 +18743,7 @@
         <v>1.7164582638964903E-2</v>
       </c>
       <c r="I398" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J398" s="23">
         <f t="shared" ref="J398" si="171">AVERAGE(G398:G406)</f>
@@ -18726,7 +18753,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B399" s="12">
         <v>45</v>
@@ -18754,7 +18781,7 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B400" s="12">
         <v>45</v>
@@ -18782,7 +18809,7 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B401" s="12">
         <v>45</v>
@@ -18809,14 +18836,14 @@
         <v>3.8635441276759303E-2</v>
       </c>
       <c r="I401" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J401" s="23"/>
       <c r="K401" s="23"/>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B402" s="12">
         <v>45</v>
@@ -18844,7 +18871,7 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B403" s="12">
         <v>45</v>
@@ -18872,7 +18899,7 @@
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B404" s="12">
         <v>45</v>
@@ -18899,14 +18926,14 @@
         <v>5.59137808393802E-2</v>
       </c>
       <c r="I404" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J404" s="23"/>
       <c r="K404" s="23"/>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B405" s="12">
         <v>45</v>
@@ -18934,7 +18961,7 @@
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B406" s="12">
         <v>45</v>
@@ -18962,7 +18989,7 @@
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B407" s="12">
         <v>5</v>
@@ -18988,7 +19015,7 @@
         <v>2.1930632068311744E-2</v>
       </c>
       <c r="I407" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J407" s="23">
         <f t="shared" ref="J407" si="175">AVERAGE(G407:G415)</f>
@@ -19001,7 +19028,7 @@
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B408" s="12">
         <v>5</v>
@@ -19029,7 +19056,7 @@
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B409" s="12">
         <v>5</v>
@@ -19058,7 +19085,7 @@
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B410" s="12">
         <v>5</v>
@@ -19084,14 +19111,14 @@
         <v>3.0574261642111956E-2</v>
       </c>
       <c r="I410" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J410" s="23"/>
       <c r="K410" s="23"/>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B411" s="12">
         <v>5</v>
@@ -19120,7 +19147,7 @@
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B412" s="12">
         <v>5</v>
@@ -19148,7 +19175,7 @@
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B413" s="12">
         <v>5</v>
@@ -19174,14 +19201,14 @@
         <v>4.0396342048996505E-3</v>
       </c>
       <c r="I413" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J413" s="23"/>
       <c r="K413" s="23"/>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B414" s="12">
         <v>5</v>
@@ -19210,7 +19237,7 @@
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B415" s="12">
         <v>5</v>
@@ -19238,7 +19265,7 @@
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B416" s="12">
         <v>5</v>
@@ -19264,7 +19291,7 @@
         <v>2.2652319924963759E-2</v>
       </c>
       <c r="I416" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J416" s="23">
         <f t="shared" ref="J416" si="179">AVERAGE(G416:G424)</f>
@@ -19274,7 +19301,7 @@
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B417" s="12">
         <v>5</v>
@@ -19302,7 +19329,7 @@
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B418" s="12">
         <v>5</v>
@@ -19330,7 +19357,7 @@
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B419" s="12">
         <v>5</v>
@@ -19356,14 +19383,14 @@
         <v>1.6471108522187687E-2</v>
       </c>
       <c r="I419" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J419" s="23"/>
       <c r="K419" s="23"/>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B420" s="12">
         <v>5</v>
@@ -19391,7 +19418,7 @@
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B421" s="12">
         <v>5</v>
@@ -19419,7 +19446,7 @@
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B422" s="12">
         <v>5</v>
@@ -19446,14 +19473,14 @@
         <v>1.9043383921937669E-2</v>
       </c>
       <c r="I422" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J422" s="23"/>
       <c r="K422" s="23"/>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B423" s="12">
         <v>5</v>
@@ -19481,7 +19508,7 @@
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B424" s="12">
         <v>5</v>
@@ -19509,7 +19536,7 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B425" s="12">
         <v>5</v>
@@ -19535,7 +19562,7 @@
         <v>3.936665211040672E-2</v>
       </c>
       <c r="I425" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J425" s="23">
         <f t="shared" ref="J425" si="183">AVERAGE(G425:G433)</f>
@@ -19545,7 +19572,7 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B426" s="12">
         <v>5</v>
@@ -19573,7 +19600,7 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B427" s="12">
         <v>5</v>
@@ -19601,7 +19628,7 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B428" s="12">
         <v>5</v>
@@ -19628,14 +19655,14 @@
         <v>0.1314341598892951</v>
       </c>
       <c r="I428" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J428" s="23"/>
       <c r="K428" s="23"/>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B429" s="12">
         <v>5</v>
@@ -19664,7 +19691,7 @@
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B430" s="12">
         <v>5</v>
@@ -19690,14 +19717,14 @@
         <v>4.5103156479531817E-4</v>
       </c>
       <c r="I430" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J430" s="23"/>
       <c r="K430" s="23"/>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B431" s="12">
         <v>5</v>
@@ -19725,7 +19752,7 @@
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B432" s="12">
         <v>5</v>
@@ -19754,7 +19781,7 @@
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B433" s="12">
         <v>10</v>
@@ -19780,14 +19807,14 @@
         <v>4.9516343557604189E-4</v>
       </c>
       <c r="I433" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J433" s="23"/>
       <c r="K433" s="23"/>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B434" s="12">
         <v>10</v>
@@ -19821,7 +19848,7 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B435" s="12">
         <v>10</v>
@@ -19849,7 +19876,7 @@
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B436" s="12">
         <v>10</v>
@@ -19875,14 +19902,14 @@
         <v>6.1939401729404365E-3</v>
       </c>
       <c r="I436" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J436" s="23"/>
       <c r="K436" s="23"/>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B437" s="12">
         <v>10</v>
@@ -19910,7 +19937,7 @@
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B438" s="12">
         <v>10</v>
@@ -19938,7 +19965,7 @@
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B439" s="12">
         <v>10</v>
@@ -19965,14 +19992,14 @@
         <v>6.8550817002240111E-2</v>
       </c>
       <c r="I439" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J439" s="23"/>
       <c r="K439" s="23"/>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B440" s="12">
         <v>10</v>
@@ -20000,7 +20027,7 @@
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B441" s="12">
         <v>10</v>
@@ -20029,7 +20056,7 @@
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B442" s="12">
         <v>10</v>
@@ -20055,7 +20082,7 @@
         <v>7.6394509862158413E-2</v>
       </c>
       <c r="I442" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J442" s="23">
         <f t="shared" ref="J442" si="186">AVERAGE(G442:G450)</f>
@@ -20065,7 +20092,7 @@
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B443" s="12">
         <v>10</v>
@@ -20093,7 +20120,7 @@
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B444" s="12">
         <v>10</v>
@@ -20122,7 +20149,7 @@
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B445" s="12">
         <v>10</v>
@@ -20148,14 +20175,14 @@
         <v>1.0403245697097017E-2</v>
       </c>
       <c r="I445" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J445" s="23"/>
       <c r="K445" s="23"/>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B446" s="12">
         <v>10</v>
@@ -20183,7 +20210,7 @@
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B447" s="12">
         <v>10</v>
@@ -20211,7 +20238,7 @@
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B448" s="12">
         <v>10</v>
@@ -20237,14 +20264,14 @@
         <v>6.8228580992641674E-2</v>
       </c>
       <c r="I448" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J448" s="23"/>
       <c r="K448" s="23"/>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B449" s="12">
         <v>10</v>
@@ -20272,7 +20299,7 @@
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B450" s="12">
         <v>10</v>
@@ -20301,7 +20328,7 @@
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B451" s="12">
         <v>10</v>
@@ -20327,7 +20354,7 @@
         <v>6.9485602933206311E-2</v>
       </c>
       <c r="I451" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J451" s="23">
         <f t="shared" ref="J451" si="188">AVERAGE(G451:G459)</f>
@@ -20337,7 +20364,7 @@
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B452" s="12">
         <v>10</v>
@@ -20365,7 +20392,7 @@
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B453" s="12">
         <v>10</v>
@@ -20393,7 +20420,7 @@
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B454" s="12">
         <v>10</v>
@@ -20419,14 +20446,14 @@
         <v>5.5120034018867619E-5</v>
       </c>
       <c r="I454" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J454" s="23"/>
       <c r="K454" s="23"/>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B455" s="12">
         <v>10</v>
@@ -20454,7 +20481,7 @@
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B456" s="12">
         <v>10</v>
@@ -20482,7 +20509,7 @@
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B457" s="12">
         <v>10</v>
@@ -20508,14 +20535,14 @@
         <v>1.7496979775205191E-3</v>
       </c>
       <c r="I457" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J457" s="23"/>
       <c r="K457" s="23"/>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B458" s="12">
         <v>10</v>
@@ -20543,7 +20570,7 @@
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B459" s="12">
         <v>10</v>
@@ -20571,7 +20598,7 @@
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B460" s="12">
         <v>25</v>
@@ -20597,7 +20624,7 @@
         <v>1.478300503566702E-2</v>
       </c>
       <c r="I460" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J460" s="23">
         <f t="shared" ref="J460" si="189">AVERAGE(G460:G468)</f>
@@ -20610,7 +20637,7 @@
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B461" s="12">
         <v>25</v>
@@ -20638,7 +20665,7 @@
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B462" s="12">
         <v>25</v>
@@ -20666,7 +20693,7 @@
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B463" s="12">
         <v>25</v>
@@ -20692,14 +20719,14 @@
         <v>1.2346023753439834E-2</v>
       </c>
       <c r="I463" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J463" s="23"/>
       <c r="K463" s="23"/>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B464" s="12">
         <v>25</v>
@@ -20727,7 +20754,7 @@
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B465" s="12">
         <v>25</v>
@@ -20756,7 +20783,7 @@
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B466" s="12">
         <v>25</v>
@@ -20783,14 +20810,14 @@
         <v>3.800421061572292E-3</v>
       </c>
       <c r="I466" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J466" s="23"/>
       <c r="K466" s="23"/>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B467" s="12">
         <v>25</v>
@@ -20818,7 +20845,7 @@
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B468" s="12">
         <v>25</v>
@@ -20847,7 +20874,7 @@
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B469" s="12">
         <v>25</v>
@@ -20873,7 +20900,7 @@
         <v>1.2215877459479235E-3</v>
       </c>
       <c r="I469" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J469" s="23">
         <f t="shared" ref="J469" si="190">AVERAGE(G469:G477)</f>
@@ -20883,7 +20910,7 @@
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B470" s="12">
         <v>25</v>
@@ -20911,7 +20938,7 @@
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B471" s="12">
         <v>25</v>
@@ -20939,7 +20966,7 @@
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B472" s="12">
         <v>25</v>
@@ -20966,14 +20993,14 @@
         <v>1.0473399371725046E-2</v>
       </c>
       <c r="I472" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J472" s="23"/>
       <c r="K472" s="23"/>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B473" s="12">
         <v>25</v>
@@ -21002,7 +21029,7 @@
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B474" s="12">
         <v>25</v>
@@ -21030,7 +21057,7 @@
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B475" s="12">
         <v>25</v>
@@ -21056,14 +21083,14 @@
         <v>1.0154526609495699E-2</v>
       </c>
       <c r="I475" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J475" s="23"/>
       <c r="K475" s="23"/>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B476" s="12">
         <v>25</v>
@@ -21091,7 +21118,7 @@
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B477" s="12">
         <v>25</v>
@@ -21120,7 +21147,7 @@
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B478" s="12">
         <v>25</v>
@@ -21146,7 +21173,7 @@
         <v>0</v>
       </c>
       <c r="I478" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J478" s="23">
         <f t="shared" ref="J478" si="191">AVERAGE(G478:G486)</f>
@@ -21156,7 +21183,7 @@
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B479" s="12">
         <v>25</v>
@@ -21184,7 +21211,7 @@
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B480" s="12">
         <v>25</v>
@@ -21212,7 +21239,7 @@
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B481" s="12">
         <v>25</v>
@@ -21238,14 +21265,14 @@
         <v>3.6802561572235604E-2</v>
       </c>
       <c r="I481" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J481" s="23"/>
       <c r="K481" s="23"/>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B482" s="12">
         <v>25</v>
@@ -21273,7 +21300,7 @@
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B483" s="12">
         <v>25</v>
@@ -21301,7 +21328,7 @@
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B484" s="12">
         <v>25</v>
@@ -21328,14 +21355,14 @@
         <v>7.5598576209617255E-2</v>
       </c>
       <c r="I484" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J484" s="23"/>
       <c r="K484" s="23"/>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B485" s="12">
         <v>25</v>
@@ -21364,7 +21391,7 @@
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B486" s="12">
         <v>25</v>
@@ -21393,7 +21420,7 @@
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B487" s="12">
         <v>35</v>
@@ -21419,7 +21446,7 @@
         <v>1.0293367893258466E-4</v>
       </c>
       <c r="I487" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J487" s="23">
         <f t="shared" ref="J487" si="192">AVERAGE(G487:G495)</f>
@@ -21432,7 +21459,7 @@
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B488" s="12">
         <v>35</v>
@@ -21460,7 +21487,7 @@
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B489" s="12">
         <v>35</v>
@@ -21488,7 +21515,7 @@
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B490" s="12">
         <v>35</v>
@@ -21514,14 +21541,14 @@
         <v>9.3985630301734163E-3</v>
       </c>
       <c r="I490" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J490" s="23"/>
       <c r="K490" s="23"/>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B491" s="12">
         <v>35</v>
@@ -21550,7 +21577,7 @@
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B492" s="12">
         <v>35</v>
@@ -21578,7 +21605,7 @@
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B493" s="12">
         <v>35</v>
@@ -21605,14 +21632,14 @@
         <v>1.5319587152270479E-3</v>
       </c>
       <c r="I493" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J493" s="23"/>
       <c r="K493" s="23"/>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B494" s="12">
         <v>35</v>
@@ -21641,7 +21668,7 @@
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B495" s="12">
         <v>35</v>
@@ -21669,7 +21696,7 @@
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B496" s="12">
         <v>35</v>
@@ -21695,7 +21722,7 @@
         <v>7.1890010837953567E-4</v>
       </c>
       <c r="I496" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J496" s="23">
         <f t="shared" ref="J496" si="193">AVERAGE(G496:G504)</f>
@@ -21705,7 +21732,7 @@
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B497" s="12">
         <v>35</v>
@@ -21733,7 +21760,7 @@
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B498" s="12">
         <v>35</v>
@@ -21761,7 +21788,7 @@
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B499" s="12">
         <v>35</v>
@@ -21788,14 +21815,14 @@
         <v>9.3908884701270224E-3</v>
       </c>
       <c r="I499" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J499" s="23"/>
       <c r="K499" s="23"/>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B500" s="12">
         <v>35</v>
@@ -21824,7 +21851,7 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B501" s="12">
         <v>35</v>
@@ -21853,7 +21880,7 @@
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B502" s="12">
         <v>35</v>
@@ -21880,14 +21907,14 @@
         <v>1.4755169123104655E-2</v>
       </c>
       <c r="I502" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J502" s="23"/>
       <c r="K502" s="23"/>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B503" s="12">
         <v>35</v>
@@ -21916,7 +21943,7 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B504" s="12">
         <v>35</v>
@@ -21945,7 +21972,7 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B505" s="12">
         <v>35</v>
@@ -21972,7 +21999,7 @@
         <v>2.1942197344442159E-2</v>
       </c>
       <c r="I505" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J505" s="23">
         <f t="shared" ref="J505" si="195">AVERAGE(G505:G513)</f>
@@ -21982,7 +22009,7 @@
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B506" s="12">
         <v>35</v>
@@ -22011,7 +22038,7 @@
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B507" s="12">
         <v>35</v>
@@ -22040,7 +22067,7 @@
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B508" s="12">
         <v>35</v>
@@ -22067,14 +22094,14 @@
         <v>3.6781577926684149E-2</v>
       </c>
       <c r="I508" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J508" s="23"/>
       <c r="K508" s="23"/>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B509" s="12">
         <v>35</v>
@@ -22103,7 +22130,7 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B510" s="12">
         <v>35</v>
@@ -22131,7 +22158,7 @@
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B511" s="12">
         <v>35</v>
@@ -22158,14 +22185,14 @@
         <v>0.10237143636095133</v>
       </c>
       <c r="I511" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J511" s="23"/>
       <c r="K511" s="23"/>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B512" s="12">
         <v>35</v>
@@ -22194,7 +22221,7 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B513" s="12">
         <v>35</v>
@@ -22222,7 +22249,7 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B514" s="12">
         <v>45</v>
@@ -22248,7 +22275,7 @@
         <v>1.3232526965310659E-3</v>
       </c>
       <c r="I514" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J514" s="23">
         <f t="shared" ref="J514" si="197">AVERAGE(G514:G522)</f>
@@ -22261,7 +22288,7 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B515" s="12">
         <v>45</v>
@@ -22289,7 +22316,7 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B516" s="12">
         <v>45</v>
@@ -22317,7 +22344,7 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B517" s="12">
         <v>45</v>
@@ -22343,14 +22370,14 @@
         <v>1.230904397792922E-3</v>
       </c>
       <c r="I517" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J517" s="23"/>
       <c r="K517" s="23"/>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B518" s="12">
         <v>45</v>
@@ -22378,7 +22405,7 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B519" s="12">
         <v>45</v>
@@ -22406,7 +22433,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B520" s="12">
         <v>45</v>
@@ -22432,14 +22459,14 @@
         <v>9.7877862506841398E-2</v>
       </c>
       <c r="I520" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J520" s="23"/>
       <c r="K520" s="23"/>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B521" s="12">
         <v>45</v>
@@ -22467,7 +22494,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B522" s="12">
         <v>45</v>
@@ -22496,7 +22523,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B523" s="12">
         <v>45</v>
@@ -22523,7 +22550,7 @@
         <v>5.8763343959097582E-2</v>
       </c>
       <c r="I523" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J523" s="23">
         <f t="shared" ref="J523" si="198">AVERAGE(G523:G531)</f>
@@ -22533,7 +22560,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B524" s="12">
         <v>45</v>
@@ -22561,7 +22588,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B525" s="12">
         <v>45</v>
@@ -22589,7 +22616,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B526" s="12">
         <v>45</v>
@@ -22616,14 +22643,14 @@
         <v>8.4166183099015884E-2</v>
       </c>
       <c r="I526" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J526" s="23"/>
       <c r="K526" s="23"/>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B527" s="12">
         <v>45</v>
@@ -22652,7 +22679,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B528" s="12">
         <v>45</v>
@@ -22680,7 +22707,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B529" s="12">
         <v>45</v>
@@ -22706,14 +22733,14 @@
         <v>2.3830645645225171E-3</v>
       </c>
       <c r="I529" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J529" s="23"/>
       <c r="K529" s="23"/>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B530" s="12">
         <v>45</v>
@@ -22741,7 +22768,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B531" s="12">
         <v>45</v>
@@ -22769,7 +22796,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B532" s="12">
         <v>45</v>
@@ -22795,7 +22822,7 @@
         <v>6.2097279353971252E-3</v>
       </c>
       <c r="I532" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J532" s="23">
         <f t="shared" ref="J532" si="199">AVERAGE(G532:G540)</f>
@@ -22805,7 +22832,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B533" s="12">
         <v>45</v>
@@ -22833,7 +22860,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B534" s="12">
         <v>45</v>
@@ -22861,7 +22888,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B535" s="12">
         <v>45</v>
@@ -22888,14 +22915,14 @@
         <v>2.1916937235456898E-2</v>
       </c>
       <c r="I535" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J535" s="23"/>
       <c r="K535" s="23"/>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B536" s="12">
         <v>45</v>
@@ -22924,7 +22951,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B537" s="12">
         <v>45</v>
@@ -22953,7 +22980,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B538" s="12">
         <v>45</v>
@@ -22979,14 +23006,14 @@
         <v>1.7889371139494813E-2</v>
       </c>
       <c r="I538" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J538" s="23"/>
       <c r="K538" s="23"/>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B539" s="12">
         <v>45</v>
@@ -23015,7 +23042,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B540" s="12">
         <v>45</v>
@@ -23069,7 +23096,7 @@
         <v>0.15676178158596718</v>
       </c>
       <c r="I541" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J541" s="23">
         <f t="shared" ref="J541" si="200">AVERAGE(G541:G549)</f>
@@ -23164,7 +23191,7 @@
         <v>8.0679765110979851E-2</v>
       </c>
       <c r="I544" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J544" s="23"/>
       <c r="K544" s="23"/>
@@ -23253,7 +23280,7 @@
         <v>7.7244084572978544E-2</v>
       </c>
       <c r="I547" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J547" s="23"/>
       <c r="K547" s="23"/>
@@ -23343,7 +23370,7 @@
         <v>8.477552428285294E-2</v>
       </c>
       <c r="I550" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J550" s="23">
         <f t="shared" ref="J550" si="201">AVERAGE(G550:G558)</f>
@@ -23435,7 +23462,7 @@
         <v>2.0620170605915578E-2</v>
       </c>
       <c r="I553" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J553" s="23"/>
       <c r="K553" s="23"/>
@@ -23524,7 +23551,7 @@
         <v>1.7654440802943584E-4</v>
       </c>
       <c r="I556" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J556" s="23"/>
       <c r="K556" s="23"/>
@@ -23613,7 +23640,7 @@
         <v>2.4951860435619816E-3</v>
       </c>
       <c r="I559" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J559" s="23">
         <f t="shared" ref="J559" si="202">AVERAGE(G559:G567)</f>
@@ -23705,7 +23732,7 @@
         <v>7.7785190232003976E-3</v>
       </c>
       <c r="I562" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J562" s="23"/>
       <c r="K562" s="23"/>
@@ -23794,7 +23821,7 @@
         <v>1.0113859358607745E-2</v>
       </c>
       <c r="I565" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J565" s="23"/>
       <c r="K565" s="23"/>
@@ -23857,7 +23884,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B568" s="12">
         <v>10</v>
@@ -23883,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I568" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J568" s="23">
         <f t="shared" ref="J568" si="204">AVERAGE(G568:G576)</f>
@@ -23896,7 +23923,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B569" s="12">
         <v>10</v>
@@ -23924,7 +23951,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B570" s="12">
         <v>10</v>
@@ -23952,7 +23979,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B571" s="12">
         <v>10</v>
@@ -23978,14 +24005,14 @@
         <v>2.3550505243015063E-3</v>
       </c>
       <c r="I571" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J571" s="23"/>
       <c r="K571" s="23"/>
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B572" s="12">
         <v>10</v>
@@ -24013,7 +24040,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B573" s="12">
         <v>10</v>
@@ -24042,7 +24069,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B574" s="12">
         <v>10</v>
@@ -24068,14 +24095,14 @@
         <v>8.8794158387363702E-3</v>
       </c>
       <c r="I574" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J574" s="23"/>
       <c r="K574" s="23"/>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B575" s="12">
         <v>10</v>
@@ -24103,7 +24130,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B576" s="12">
         <v>10</v>
@@ -24131,7 +24158,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B577" s="12">
         <v>10</v>
@@ -24157,7 +24184,7 @@
         <v>1.8726854187453522E-3</v>
       </c>
       <c r="I577" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J577" s="23">
         <f t="shared" ref="J577" si="205">AVERAGE(G577:G585)</f>
@@ -24167,7 +24194,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B578" s="12">
         <v>10</v>
@@ -24195,7 +24222,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B579" s="12">
         <v>10</v>
@@ -24223,7 +24250,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B580" s="12">
         <v>10</v>
@@ -24249,14 +24276,14 @@
         <v>2.4106001282444906E-2</v>
       </c>
       <c r="I580" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J580" s="23"/>
       <c r="K580" s="23"/>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B581" s="12">
         <v>10</v>
@@ -24284,7 +24311,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B582" s="12">
         <v>10</v>
@@ -24312,7 +24339,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B583" s="12">
         <v>10</v>
@@ -24338,14 +24365,14 @@
         <v>5.7851175246664908E-2</v>
       </c>
       <c r="I583" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J583" s="23"/>
       <c r="K583" s="23"/>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B584" s="12">
         <v>10</v>
@@ -24373,7 +24400,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B585" s="12">
         <v>10</v>
@@ -24401,7 +24428,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B586" s="12">
         <v>10</v>
@@ -24428,7 +24455,7 @@
         <v>2.3778707084062191E-2</v>
       </c>
       <c r="I586" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J586" s="23">
         <f t="shared" ref="J586" si="207">AVERAGE(G586:G594)</f>
@@ -24438,7 +24465,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B587" s="12">
         <v>10</v>
@@ -24466,7 +24493,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B588" s="12">
         <v>10</v>
@@ -24494,7 +24521,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B589" s="12">
         <v>10</v>
@@ -24520,14 +24547,14 @@
         <v>2.498173993281011E-2</v>
       </c>
       <c r="I589" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J589" s="23"/>
       <c r="K589" s="23"/>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B590" s="12">
         <v>10</v>
@@ -24555,7 +24582,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B591" s="12">
         <v>10</v>
@@ -24583,7 +24610,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B592" s="12">
         <v>10</v>
@@ -24609,14 +24636,14 @@
         <v>4.0807310820305436E-3</v>
       </c>
       <c r="I592" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J592" s="23"/>
       <c r="K592" s="23"/>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B593" s="12">
         <v>10</v>
@@ -24644,7 +24671,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B594" s="12">
         <v>10</v>
@@ -24672,7 +24699,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B595" s="12">
         <v>25</v>
@@ -24699,7 +24726,7 @@
         <v>3.0464142088774255E-2</v>
       </c>
       <c r="I595" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J595" s="23">
         <f t="shared" ref="J595" si="208">AVERAGE(G595:G603)</f>
@@ -24712,7 +24739,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B596" s="12">
         <v>25</v>
@@ -24741,7 +24768,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B597" s="12">
         <v>25</v>
@@ -24770,7 +24797,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B598" s="12">
         <v>25</v>
@@ -24796,14 +24823,14 @@
         <v>1.0844638520402319E-2</v>
       </c>
       <c r="I598" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J598" s="23"/>
       <c r="K598" s="23"/>
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B599" s="12">
         <v>25</v>
@@ -24832,7 +24859,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B600" s="12">
         <v>25</v>
@@ -24861,7 +24888,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B601" s="12">
         <v>25</v>
@@ -24887,14 +24914,14 @@
         <v>3.8623388610871077E-3</v>
       </c>
       <c r="I601" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J601" s="23"/>
       <c r="K601" s="23"/>
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B602" s="12">
         <v>25</v>
@@ -24923,7 +24950,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B603" s="12">
         <v>25</v>
@@ -24951,7 +24978,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B604" s="12">
         <v>25</v>
@@ -24977,7 +25004,7 @@
         <v>4.5916550007632825E-2</v>
       </c>
       <c r="I604" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J604" s="23">
         <f t="shared" ref="J604" si="209">AVERAGE(G604:G612)</f>
@@ -24987,7 +25014,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B605" s="12">
         <v>25</v>
@@ -25016,7 +25043,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B606" s="12">
         <v>25</v>
@@ -25045,7 +25072,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B607" s="12">
         <v>25</v>
@@ -25072,14 +25099,14 @@
         <v>4.8771277840429048E-2</v>
       </c>
       <c r="I607" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J607" s="23"/>
       <c r="K607" s="23"/>
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B608" s="12">
         <v>25</v>
@@ -25107,7 +25134,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B609" s="12">
         <v>25</v>
@@ -25136,7 +25163,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B610" s="12">
         <v>25</v>
@@ -25163,14 +25190,14 @@
         <v>4.6142507650725209E-2</v>
       </c>
       <c r="I610" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J610" s="23"/>
       <c r="K610" s="23"/>
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B611" s="12">
         <v>25</v>
@@ -25199,7 +25226,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B612" s="12">
         <v>25</v>
@@ -25227,7 +25254,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B613" s="12">
         <v>25</v>
@@ -25253,7 +25280,7 @@
         <v>1.9934414539548969E-2</v>
       </c>
       <c r="I613" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J613" s="23">
         <f t="shared" ref="J613" si="210">AVERAGE(G613:G621)</f>
@@ -25263,7 +25290,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B614" s="12">
         <v>25</v>
@@ -25291,7 +25318,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B615" s="12">
         <v>25</v>
@@ -25319,7 +25346,7 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B616" s="12">
         <v>25</v>
@@ -25345,14 +25372,14 @@
         <v>3.5828652907461706E-2</v>
       </c>
       <c r="I616" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J616" s="23"/>
       <c r="K616" s="23"/>
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B617" s="12">
         <v>25</v>
@@ -25380,7 +25407,7 @@
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B618" s="12">
         <v>25</v>
@@ -25408,7 +25435,7 @@
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B619" s="12">
         <v>25</v>
@@ -25434,14 +25461,14 @@
         <v>1.417307947264703E-4</v>
       </c>
       <c r="I619" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J619" s="23"/>
       <c r="K619" s="23"/>
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B620" s="12">
         <v>25</v>
@@ -25469,7 +25496,7 @@
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B621" s="12">
         <v>25</v>
@@ -25497,7 +25524,7 @@
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B622" s="12">
         <v>35</v>
@@ -25523,7 +25550,7 @@
         <v>1.2459372272008178E-2</v>
       </c>
       <c r="I622" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J622" s="23">
         <f t="shared" ref="J622" si="211">AVERAGE(G622:G630)</f>
@@ -25536,7 +25563,7 @@
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B623" s="12">
         <v>35</v>
@@ -25565,7 +25592,7 @@
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B624" s="12">
         <v>35</v>
@@ -25594,7 +25621,7 @@
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B625" s="12">
         <v>35</v>
@@ -25621,14 +25648,14 @@
         <v>8.959275909435847E-3</v>
       </c>
       <c r="I625" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J625" s="23"/>
       <c r="K625" s="23"/>
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B626" s="12">
         <v>35</v>
@@ -25656,7 +25683,7 @@
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B627" s="12">
         <v>35</v>
@@ -25685,7 +25712,7 @@
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B628" s="12">
         <v>35</v>
@@ -25712,14 +25739,14 @@
         <v>0.10544194526063702</v>
       </c>
       <c r="I628" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J628" s="23"/>
       <c r="K628" s="23"/>
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B629" s="12">
         <v>35</v>
@@ -25748,7 +25775,7 @@
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B630" s="12">
         <v>35</v>
@@ -25777,7 +25804,7 @@
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B631" s="12">
         <v>35</v>
@@ -25803,7 +25830,7 @@
         <v>2.7078902399072669E-2</v>
       </c>
       <c r="I631" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J631" s="23">
         <f>AVERAGE(G631:G642)</f>
@@ -25813,7 +25840,7 @@
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B632" s="12">
         <v>35</v>
@@ -25841,7 +25868,7 @@
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B633" s="12">
         <v>35</v>
@@ -25869,7 +25896,7 @@
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B634" s="12">
         <v>35</v>
@@ -25895,14 +25922,14 @@
         <v>1.0811845558957442E-2</v>
       </c>
       <c r="I634" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J634" s="23"/>
       <c r="K634" s="23"/>
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B635" s="12">
         <v>35</v>
@@ -25930,7 +25957,7 @@
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B636" s="12">
         <v>35</v>
@@ -25958,7 +25985,7 @@
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B637" s="12">
         <v>35</v>
@@ -25984,14 +26011,14 @@
         <v>7.1141005619102947E-4</v>
       </c>
       <c r="I637" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J637" s="23"/>
       <c r="K637" s="23"/>
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B638" s="12">
         <v>35</v>
@@ -26019,7 +26046,7 @@
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B639" s="12">
         <v>35</v>
@@ -26047,7 +26074,7 @@
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B640" s="12">
         <v>35</v>
@@ -26073,14 +26100,14 @@
         <v>6.1151192623530278E-4</v>
       </c>
       <c r="I640" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J640" s="23"/>
       <c r="K640" s="23"/>
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B641" s="12">
         <v>35</v>
@@ -26108,7 +26135,7 @@
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B642" s="12">
         <v>35</v>
@@ -26136,7 +26163,7 @@
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B643" s="12">
         <v>35</v>
@@ -26163,7 +26190,7 @@
         <v>2.1724549480682167E-2</v>
       </c>
       <c r="I643" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J643" s="23">
         <f t="shared" ref="J643" si="214">AVERAGE(G643:G651)</f>
@@ -26173,7 +26200,7 @@
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B644" s="12">
         <v>35</v>
@@ -26202,7 +26229,7 @@
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B645" s="12">
         <v>35</v>
@@ -26231,7 +26258,7 @@
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B646" s="12">
         <v>35</v>
@@ -26258,14 +26285,14 @@
         <v>1.3220768836646838E-2</v>
       </c>
       <c r="I646" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J646" s="23"/>
       <c r="K646" s="23"/>
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B647" s="12">
         <v>35</v>
@@ -26294,7 +26321,7 @@
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B648" s="12">
         <v>35</v>
@@ -26322,7 +26349,7 @@
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B649" s="12">
         <v>35</v>
@@ -26348,14 +26375,14 @@
         <v>1.834075253040213E-4</v>
       </c>
       <c r="I649" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J649" s="23"/>
       <c r="K649" s="23"/>
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B650" s="12">
         <v>35</v>
@@ -26383,7 +26410,7 @@
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B651" s="12">
         <v>35</v>
@@ -26411,7 +26438,7 @@
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B652" s="12">
         <v>45</v>
@@ -26438,7 +26465,7 @@
         <v>1.5477658175256044E-2</v>
       </c>
       <c r="I652" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J652" s="23">
         <f t="shared" ref="J652" si="215">AVERAGE(G652:G660)</f>
@@ -26451,7 +26478,7 @@
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B653" s="12">
         <v>45</v>
@@ -26479,7 +26506,7 @@
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B654" s="12">
         <v>45</v>
@@ -26507,7 +26534,7 @@
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B655" s="12">
         <v>45</v>
@@ -26533,14 +26560,14 @@
         <v>5.3119146318127954E-2</v>
       </c>
       <c r="I655" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J655" s="23"/>
       <c r="K655" s="23"/>
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B656" s="12">
         <v>45</v>
@@ -26569,7 +26596,7 @@
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B657" s="12">
         <v>45</v>
@@ -26598,7 +26625,7 @@
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B658" s="12">
         <v>45</v>
@@ -26625,14 +26652,14 @@
         <v>3.0810405407143073E-3</v>
       </c>
       <c r="I658" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J658" s="23"/>
       <c r="K658" s="23"/>
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B659" s="12">
         <v>45</v>
@@ -26661,7 +26688,7 @@
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B660" s="12">
         <v>45</v>
@@ -26689,7 +26716,7 @@
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B661" s="12">
         <v>45</v>
@@ -26715,7 +26742,7 @@
         <v>8.4567622542951323E-4</v>
       </c>
       <c r="I661" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J661" s="23">
         <f t="shared" ref="J661" si="216">AVERAGE(G661:G669)</f>
@@ -26725,7 +26752,7 @@
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B662" s="12">
         <v>45</v>
@@ -26753,7 +26780,7 @@
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B663" s="12">
         <v>45</v>
@@ -26782,7 +26809,7 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B664" s="12">
         <v>45</v>
@@ -26808,14 +26835,14 @@
         <v>4.3171948658795919E-3</v>
       </c>
       <c r="I664" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J664" s="23"/>
       <c r="K664" s="23"/>
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B665" s="12">
         <v>45</v>
@@ -26843,7 +26870,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B666" s="12">
         <v>45</v>
@@ -26871,7 +26898,7 @@
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B667" s="12">
         <v>45</v>
@@ -26897,14 +26924,14 @@
         <v>4.0767478859248703E-3</v>
       </c>
       <c r="I667" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J667" s="23"/>
       <c r="K667" s="23"/>
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B668" s="12">
         <v>45</v>
@@ -26932,7 +26959,7 @@
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B669" s="12">
         <v>45</v>
@@ -26960,7 +26987,7 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B670" s="12">
         <v>45</v>
@@ -26986,7 +27013,7 @@
         <v>1.3984604739342836E-2</v>
       </c>
       <c r="I670" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J670" s="23">
         <f t="shared" ref="J670" si="217">AVERAGE(G670:G678)</f>
@@ -26996,7 +27023,7 @@
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B671" s="12">
         <v>45</v>
@@ -27024,7 +27051,7 @@
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B672" s="12">
         <v>45</v>
@@ -27052,7 +27079,7 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B673" s="12">
         <v>45</v>
@@ -27078,14 +27105,14 @@
         <v>0</v>
       </c>
       <c r="I673" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J673" s="23"/>
       <c r="K673" s="23"/>
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B674" s="12">
         <v>45</v>
@@ -27113,7 +27140,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B675" s="12">
         <v>45</v>
@@ -27141,7 +27168,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B676" s="12">
         <v>45</v>
@@ -27167,14 +27194,14 @@
         <v>6.8808216210706052E-3</v>
       </c>
       <c r="I676" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J676" s="23"/>
       <c r="K676" s="23"/>
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B677" s="12">
         <v>45</v>
@@ -27202,7 +27229,7 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B678" s="12">
         <v>45</v>
